--- a/biology/Histoire de la zoologie et de la botanique/Carl_Rudolf_Florin/Carl_Rudolf_Florin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Rudolf_Florin/Carl_Rudolf_Florin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Carl Rudolf Florin est un botaniste et paléontologue suédois né en 1894 et mort en 1965. Il est considéré comme l'un des pionniers dans l'étude des conifères fossiles. Il est notamment l'auteur d'une publication sur les conifères du Tertiaire au sud du Chili (1940). Il reçoit la médaille d’argent Darwin-Wallace en 1958. On lui doit la description de trois espèces végétales :
 Cymbella diluviana
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On the geological history of the Sciadopitineae. Svensk Bot. Tidskr. 16 (2): 260-270 (1922).
 Die Koniferengattung Libocedrus Endl. in Ostasien. Svensk Bot. Tidskr. 24 (1): 117-131 (1930).
